--- a/7 Семестр/Алгоритми та методи обчислень/ПО/Lab5.xlsx
+++ b/7 Семестр/Алгоритми та методи обчислень/ПО/Lab5.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
+    <sheet name="Диаграмма1" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Диаграмма2" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Первое задание точность 0,01" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,18 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>f(x)</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>f(y)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -212,307 +207,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>-0.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000005E-2</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>-0.67999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>-0.66999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>-0.65999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>-0.64999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10999999999999999</c:v>
+                  <c:v>-0.6399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11999999999999998</c:v>
+                  <c:v>-0.62999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12999999999999998</c:v>
+                  <c:v>-0.61999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>-0.60999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15</c:v>
+                  <c:v>-0.59999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16</c:v>
+                  <c:v>-0.58999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17</c:v>
+                  <c:v>-0.57999999999999985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18000000000000002</c:v>
+                  <c:v>-0.56999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19000000000000003</c:v>
+                  <c:v>-0.55999999999999983</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>-0.54999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21000000000000005</c:v>
+                  <c:v>-0.53999999999999981</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22000000000000006</c:v>
+                  <c:v>-0.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23000000000000007</c:v>
+                  <c:v>-0.5199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24000000000000007</c:v>
+                  <c:v>-0.50999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25000000000000006</c:v>
+                  <c:v>-0.49999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.26000000000000006</c:v>
+                  <c:v>-0.48999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.27000000000000007</c:v>
+                  <c:v>-0.47999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28000000000000008</c:v>
+                  <c:v>-0.46999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29000000000000009</c:v>
+                  <c:v>-0.45999999999999974</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3000000000000001</c:v>
+                  <c:v>-0.44999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.31000000000000011</c:v>
+                  <c:v>-0.43999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.32000000000000012</c:v>
+                  <c:v>-0.42999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.33000000000000013</c:v>
+                  <c:v>-0.41999999999999971</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.34000000000000014</c:v>
+                  <c:v>-0.4099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.35000000000000014</c:v>
+                  <c:v>-0.39999999999999969</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.36000000000000015</c:v>
+                  <c:v>-0.38999999999999968</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.37000000000000016</c:v>
+                  <c:v>-0.37999999999999967</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38000000000000017</c:v>
+                  <c:v>-0.36999999999999966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39000000000000018</c:v>
+                  <c:v>-0.35999999999999965</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.40000000000000019</c:v>
+                  <c:v>-0.34999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4100000000000002</c:v>
+                  <c:v>-0.33999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.42000000000000021</c:v>
+                  <c:v>-0.32999999999999963</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43000000000000022</c:v>
+                  <c:v>-0.31999999999999962</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.44000000000000022</c:v>
+                  <c:v>-0.30999999999999961</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.45000000000000023</c:v>
+                  <c:v>-0.2999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46000000000000024</c:v>
+                  <c:v>-0.28999999999999959</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.47000000000000025</c:v>
+                  <c:v>-0.27999999999999958</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.48000000000000026</c:v>
+                  <c:v>-0.26999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49000000000000027</c:v>
+                  <c:v>-0.25999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.50000000000000022</c:v>
+                  <c:v>-0.24999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.51000000000000023</c:v>
+                  <c:v>-0.23999999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.52000000000000024</c:v>
+                  <c:v>-0.22999999999999954</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.53000000000000025</c:v>
+                  <c:v>-0.21999999999999953</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.54000000000000026</c:v>
+                  <c:v>-0.20999999999999952</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.55000000000000027</c:v>
+                  <c:v>-0.19999999999999951</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.56000000000000028</c:v>
+                  <c:v>-0.1899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57000000000000028</c:v>
+                  <c:v>-0.17999999999999949</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.58000000000000029</c:v>
+                  <c:v>-0.16999999999999948</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5900000000000003</c:v>
+                  <c:v>-0.15999999999999948</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.60000000000000031</c:v>
+                  <c:v>-0.14999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.61000000000000032</c:v>
+                  <c:v>-0.13999999999999946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.62000000000000033</c:v>
+                  <c:v>-0.12999999999999945</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.63000000000000034</c:v>
+                  <c:v>-0.11999999999999945</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.64000000000000035</c:v>
+                  <c:v>-0.10999999999999946</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65000000000000036</c:v>
+                  <c:v>-9.9999999999999464E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.66000000000000036</c:v>
+                  <c:v>-8.9999999999999469E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.67000000000000037</c:v>
+                  <c:v>-7.9999999999999474E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.68000000000000038</c:v>
+                  <c:v>-6.9999999999999479E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.69000000000000039</c:v>
+                  <c:v>-5.9999999999999477E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7000000000000004</c:v>
+                  <c:v>-4.9999999999999475E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.71000000000000041</c:v>
+                  <c:v>-3.9999999999999473E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.72000000000000042</c:v>
+                  <c:v>-2.9999999999999472E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.73000000000000043</c:v>
+                  <c:v>-1.999999999999947E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.74000000000000044</c:v>
+                  <c:v>-9.9999999999994694E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.75000000000000044</c:v>
+                  <c:v>5.3082538364890297E-16</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.76000000000000045</c:v>
+                  <c:v>1.0000000000000531E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.77000000000000046</c:v>
+                  <c:v>2.0000000000000531E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.78000000000000047</c:v>
+                  <c:v>3.0000000000000533E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.79000000000000048</c:v>
+                  <c:v>4.0000000000000535E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.80000000000000049</c:v>
+                  <c:v>5.0000000000000537E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8100000000000005</c:v>
+                  <c:v>6.0000000000000539E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.82000000000000051</c:v>
+                  <c:v>7.0000000000000534E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.83000000000000052</c:v>
+                  <c:v>8.0000000000000529E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84000000000000052</c:v>
+                  <c:v>9.0000000000000524E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.85000000000000053</c:v>
+                  <c:v>0.10000000000000052</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.86000000000000054</c:v>
+                  <c:v>0.11000000000000051</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.87000000000000055</c:v>
+                  <c:v>0.12000000000000051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.88000000000000056</c:v>
+                  <c:v>0.1300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.89000000000000057</c:v>
+                  <c:v>0.14000000000000051</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.90000000000000058</c:v>
+                  <c:v>0.15000000000000052</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.91000000000000059</c:v>
+                  <c:v>0.16000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.9200000000000006</c:v>
+                  <c:v>0.17000000000000054</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.9300000000000006</c:v>
+                  <c:v>0.18000000000000055</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.94000000000000061</c:v>
+                  <c:v>0.19000000000000056</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.95000000000000062</c:v>
+                  <c:v>0.20000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.96000000000000063</c:v>
+                  <c:v>0.21000000000000058</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.97000000000000064</c:v>
+                  <c:v>0.22000000000000058</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.98000000000000065</c:v>
+                  <c:v>0.23000000000000059</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99000000000000066</c:v>
+                  <c:v>0.2400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0000000000000007</c:v>
+                  <c:v>0.25000000000000061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,307 +519,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>-3.80859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5569342400000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3082175899999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0624614399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.819683190000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5798999999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3431287899999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1093862399999974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8786887899999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6510526399999979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4264937499999979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.205027839999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.98667038999999779</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.77143663999999745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.55934158999999717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35039999999999694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.14462638999999733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7964960000003174E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25736001000000286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45354496000000299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64650625000000339</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83623056000000329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0227048100000031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2059161600000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3858520100000042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5625000000000036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7358480100000042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9058841600000038</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0725968100000038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2359745600000043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3960062500000041</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5526809600000044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.705988010000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8559169600000045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0024576100000044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1456000000000044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2853344100000044</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4216513600000047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5545416100000042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6839961600000044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8100062500000043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9325633600000045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.051659210000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1672857600000039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2794352100000044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3881000000000041</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4932728100000041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5949465600000039</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6931144100000042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7877697600000042</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8789062500000036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9665177600000039</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0505984100000036</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.1311425600000042</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.2081448100000038</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2816000000000036</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.3515032100000033</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.4178497600000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.4806352100000026</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5398553600000033</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5955062500000032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6475841600000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6960856100000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.741007360000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.7823464100000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8201000000000018</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8542656100000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8848409600000018</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.911824010000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9352129600000012</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9550062500000012</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9712025600000009</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.9838008100000009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.9928001600000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9982000100000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="76">
                   <c:v>5.9982000099999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="77">
                   <c:v>5.9928001599999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.98380081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.97120256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9550062500000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9352129600000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9118240100000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.88484096</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8542656099999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.8201000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.7823464099999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7410073600000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.6960856099999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.6475841600000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5955062499999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.5398553599999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.48063521</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.4178497600000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.3515032099999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2816000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.2081448099999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.1311425599999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0505984099999992</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.9665177599999994</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.87890625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7877697599999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.6931144099999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5949465599999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4932728099999988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3880999999999988</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.279435209999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.1672857599999986</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.0516592099999986</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.9325633599999983</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.810006249999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6839961599999982</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.5545416099999976</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.4216513599999976</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.2853344099999973</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.1455999999999973</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.0024576099999973</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.855916959999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.7059880099999969</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.5526809599999964</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.3960062499999966</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2359745599999958</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.0725968099999958</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.9058841599999958</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.7358480099999953</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5624999999999964</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.3858520099999954</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.2059161599999957</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0227048099999951</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.83623055999999441</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6465062499999954</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.453544959999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.25736000999999487</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.7964959999994292E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.14462639000000621</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.35040000000000671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.55934159000000694</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.77143664000000722</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.98667039000000756</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.2050278400000085</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-1.4264937500000077</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-1.6510526400000085</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.878688790000008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-2.1093862400000081</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-2.3431287900000086</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.5799000000000092</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2.8196831900000081</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-3.0624614400000105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-3.3082175900000106</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-3.556934240000011</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-3.8085937500000124</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-4.0631782400000098</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-4.3206695900000138</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>-4.5810494400000117</c:v>
+                  <c:v>5.9838008099999991</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.8442991900000116</c:v>
+                  <c:v>5.9712025599999992</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-5.1104000000000127</c:v>
+                  <c:v>5.9550062499999994</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-5.3793327900000119</c:v>
+                  <c:v>5.9352129599999985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-5.6510782400000128</c:v>
+                  <c:v>5.9118240099999984</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-5.9256167900000154</c:v>
+                  <c:v>5.8848409599999982</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-6.2029286400000139</c:v>
+                  <c:v>5.8542656099999979</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-6.4829937500000163</c:v>
+                  <c:v>5.8200999999999983</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-6.7657918400000163</c:v>
+                  <c:v>5.7823464099999979</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-7.0513023900000142</c:v>
+                  <c:v>5.7410073599999976</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.3395046400000155</c:v>
+                  <c:v>5.6960856099999972</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.6303775900000179</c:v>
+                  <c:v>5.6475841599999974</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.9239000000000175</c:v>
+                  <c:v>5.595506249999997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-8.2200503900000168</c:v>
+                  <c:v>5.5398553599999971</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-8.5188070400000164</c:v>
+                  <c:v>5.4806352099999964</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-8.8201479900000184</c:v>
+                  <c:v>5.4178497599999966</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-9.124051040000019</c:v>
+                  <c:v>5.3515032099999962</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-9.4304937500000197</c:v>
+                  <c:v>5.2815999999999956</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-9.7394534400000179</c:v>
+                  <c:v>5.2081448099999959</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-10.050907190000022</c:v>
+                  <c:v>5.1311425599999954</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-10.364831840000022</c:v>
+                  <c:v>5.0505984099999948</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-10.681203990000022</c:v>
+                  <c:v>4.966517759999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-11.000000000000021</c:v>
+                  <c:v>4.8789062499999947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,7 +897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="381622408"/>
@@ -964,7 +959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="381622080"/>
@@ -1005,7 +1000,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1072,7 +1067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1104,334 +1099,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000005E-2</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>0.59000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10999999999999999</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11999999999999998</c:v>
+                  <c:v>0.62000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12999999999999998</c:v>
+                  <c:v>0.63000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15</c:v>
+                  <c:v>0.65000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16</c:v>
+                  <c:v>0.66000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17</c:v>
+                  <c:v>0.67000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18000000000000002</c:v>
+                  <c:v>0.68000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19000000000000003</c:v>
+                  <c:v>0.69000000000000017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>0.70000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21000000000000005</c:v>
+                  <c:v>0.71000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22000000000000006</c:v>
+                  <c:v>0.7200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23000000000000007</c:v>
+                  <c:v>0.7300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24000000000000007</c:v>
+                  <c:v>0.74000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25000000000000006</c:v>
+                  <c:v>0.75000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.26000000000000006</c:v>
+                  <c:v>0.76000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.27000000000000007</c:v>
+                  <c:v>0.77000000000000024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28000000000000008</c:v>
+                  <c:v>0.78000000000000025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29000000000000009</c:v>
+                  <c:v>0.79000000000000026</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3000000000000001</c:v>
+                  <c:v>0.80000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.31000000000000011</c:v>
+                  <c:v>0.81000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.32000000000000012</c:v>
+                  <c:v>0.82000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.33000000000000013</c:v>
+                  <c:v>0.83000000000000029</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.34000000000000014</c:v>
+                  <c:v>0.8400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.35000000000000014</c:v>
+                  <c:v>0.85000000000000031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.36000000000000015</c:v>
+                  <c:v>0.86000000000000032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.37000000000000016</c:v>
+                  <c:v>0.87000000000000033</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38000000000000017</c:v>
+                  <c:v>0.88000000000000034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39000000000000018</c:v>
+                  <c:v>0.89000000000000035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.40000000000000019</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4100000000000002</c:v>
+                  <c:v>0.91000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.42000000000000021</c:v>
+                  <c:v>0.92000000000000037</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43000000000000022</c:v>
+                  <c:v>0.93000000000000038</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.44000000000000022</c:v>
+                  <c:v>0.94000000000000039</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.45000000000000023</c:v>
+                  <c:v>0.9500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46000000000000024</c:v>
+                  <c:v>0.96000000000000041</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.47000000000000025</c:v>
+                  <c:v>0.97000000000000042</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.48000000000000026</c:v>
+                  <c:v>0.98000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49000000000000027</c:v>
+                  <c:v>0.99000000000000044</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.57000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.58000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.5900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.60000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67000000000000037</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68000000000000038</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69000000000000039</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71000000000000041</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72000000000000042</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76000000000000045</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77000000000000046</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78000000000000047</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79000000000000048</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.80000000000000049</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.8100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82000000000000051</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85000000000000053</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86000000000000054</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87000000000000055</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88000000000000056</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.90000000000000058</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91000000000000059</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.9200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9300000000000006</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94000000000000061</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95000000000000062</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96000000000000063</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98000000000000065</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99000000000000066</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.0100000000000007</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0200000000000007</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.0300000000000007</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0400000000000007</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0600000000000007</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.0700000000000007</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.0800000000000007</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.0900000000000007</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,334 +1261,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>-2.7853981633974483</c:v>
+                  <c:v>-0.96364760900080615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7503730800666357</c:v>
+                  <c:v>-0.92561565321122452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7152974968121262</c:v>
+                  <c:v>-0.88751997515716985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.6801709140203309</c:v>
+                  <c:v>-0.84936088728459147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.6449928327109102</c:v>
+                  <c:v>-0.811138740718782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6097627548757707</c:v>
+                  <c:v>-0.77285392613294057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.5744801838344058</c:v>
+                  <c:v>-0.73450687458478581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.539144624606017</c:v>
+                  <c:v>-0.69609805831761529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5037555842988599</c:v>
+                  <c:v>-0.65762799152212903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.4683125725172279</c:v>
+                  <c:v>-0.61909723105527803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4328151017865065</c:v>
+                  <c:v>-0.58050637711236464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.3972626879966903</c:v>
+                  <c:v>-0.54185607384858092</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.3616548508647615</c:v>
+                  <c:v>-0.50314700994617589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.3259911144163001</c:v>
+                  <c:v>-0.46437991912343746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.2902710074866865</c:v>
+                  <c:v>-0.42555558058171172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.254494064242218</c:v>
+                  <c:v>-0.38667481938672665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.2186598247214633</c:v>
+                  <c:v>-0.34773850678055496</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.1827678353971223</c:v>
+                  <c:v>-0.30874756042064355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.1468176497586451</c:v>
+                  <c:v>-0.26970294454245547</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.1108088289158276</c:v>
+                  <c:v>-0.23060567004239507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.0747409422235528</c:v>
+                  <c:v>-0.19145679447786645</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.038613567927821</c:v>
+                  <c:v>-0.15225742198149028</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.002426293833151</c:v>
+                  <c:v>-0.11300870308670996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.9661787179913945</c:v>
+                  <c:v>-7.3711834462265591E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.9298704494119474</c:v>
+                  <c:v>-3.436805855326508E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.8935011087932843</c:v>
+                  <c:v>5.0213368731371055E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.8570703292756834</c:v>
+                  <c:v>4.4455019279137531E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.8205777572149344</c:v>
+                  <c:v>8.3931612006116652E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.7840230529767567</c:v>
+                  <c:v>0.12344969502391168</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.7474058917515722</c:v>
+                  <c:v>0.16300780578018026</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.7107259643892081</c:v>
+                  <c:v>0.20260444015012036</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.6739829782529974</c:v>
+                  <c:v>0.24223805348640726</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.637176658092677</c:v>
+                  <c:v>0.28190706176880376</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.6003067469353716</c:v>
+                  <c:v>0.32160984285247141</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.5633730069938554</c:v>
+                  <c:v>0.36134473781359988</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5263752205911831</c:v>
+                  <c:v>0.40111005239050357</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.4893131911006612</c:v>
+                  <c:v>0.4409040585179298</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.4521867439000284</c:v>
+                  <c:v>0.48072499595185825</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.414995727338586</c:v>
+                  <c:v>0.52057107398166291</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3777400137159017</c:v>
+                  <c:v>0.56044047322605683</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.3404195002705834</c:v>
+                  <c:v>0.60033134750883921</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.3030341101774892</c:v>
+                  <c:v>0.64024182581005107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.2655837935516094</c:v>
+                  <c:v>0.68017001428776425</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.2280685284567201</c:v>
+                  <c:v>0.72011399836535883</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.1904883219167748</c:v>
+                  <c:v>0.76007184487879353</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.1528432109278599</c:v>
+                  <c:v>0.80004160427805893</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.1151332634684032</c:v>
+                  <c:v>0.84002131287671178</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.0773585795051894</c:v>
+                  <c:v>0.88000899514312358</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.0395192919925953</c:v>
+                  <c:v>0.92000266602685121</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.0016155678623266</c:v>
+                  <c:v>0.9600003333133369</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.96364760900080526</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.92561565321122363</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.88751997515716896</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.84936088728459058</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.81113874071878111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.77285392613293968</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.73450687458478492</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.69609805831761462</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.65762799152212814</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.61909723105527714</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.58050637711236375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.54185607384858003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.50314700994617501</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.46437991912343657</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.42555558058171084</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.38667481938672577</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.34773850678055407</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.30874756042064311</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.26970294454245503</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.23060567004239374</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.19145679447786534</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.15225742198148939</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.11300870308670907</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-7.3711834462264481E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-3.4368058553263969E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.0213368731375496E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.4455019279138419E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.3931612006117984E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.12344969502391301</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.1630078057801807</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.2026044401501208</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.24223805348640859</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.28190706176880465</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.32160984285247229</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.36134473781360033</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.4011100523905049</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.44090405851793113</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.48072499595185914</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.52057107398166336</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.56044047322605772</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.60033134750884054</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.64024182581005196</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.68017001428776469</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.72011399836535972</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.76007184487879487</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.80004160427805981</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.84002131287671222</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.88000899514312447</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.9200026660268521</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.96000033331333734</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.039999666686668</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0799973339731537</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.1199910048568809</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.1599786871232927</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.1999583957219455</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.2399281551212109</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.2798860016346456</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.3198299857122402</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.3597581741899534</c:v>
+                  <c:v>1.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,7 +1485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="459108760"/>
@@ -1902,7 +1543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="459111712"/>
@@ -1943,7 +1584,1179 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.64999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.6399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.62999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.61999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.60999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.58999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.57999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.56999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.55999999999999983</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.54999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.53999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.5199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.50999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.48999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.47999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.46999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.45999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.44999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.43999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.42999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.41999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.4099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.39999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.38999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.37999999999999967</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.36999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.35999999999999965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.34999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.33999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.31999999999999962</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.28999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.27999999999999958</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.26999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.25999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.24999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.23999999999999955</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.22999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.21999999999999953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.20999999999999952</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.19999999999999951</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.1899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.17999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.15999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.14999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.13999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.12999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.11999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.10999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-9.9999999999999464E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.9999999999999469E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.9999999999999474E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.9999999999999479E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-5.9999999999999477E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.9999999999999475E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.9999999999999473E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9999999999999472E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.999999999999947E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9.9999999999994694E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3082538364890297E-16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0000000000000531E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0000000000000531E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0000000000000533E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0000000000000535E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0000000000000537E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0000000000000539E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.0000000000000534E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.0000000000000529E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.0000000000000524E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.10000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.11000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.12000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.17000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.18000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.19000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.20000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.21000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.22000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.25000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.26000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.27000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.28000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.29000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.30000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.31000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.32000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.33000000000000068</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.34000000000000069</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.3500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.36000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.37000000000000072</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.38000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.40000000000000074</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.41000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.42000000000000076</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.43000000000000077</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.44000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.45000000000000079</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.4600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.47000000000000081</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.48000000000000081</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.49000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.50000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.51000000000000079</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.52000000000000079</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.5300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.54000000000000081</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.56000000000000083</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.57000000000000084</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.58000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.59000000000000086</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.60000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.61000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.62000000000000088</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.63000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.6400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.65000000000000091</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.66000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.67000000000000093</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.68000000000000094</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.69000000000000095</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.70000000000000095</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.71000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.72000000000000097</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.73000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.74000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-3.80859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5569342400000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3082175899999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0624614399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.819683190000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5798999999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3431287899999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1093862399999974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8786887899999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6510526399999979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4264937499999979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.205027839999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.98667038999999779</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.77143663999999745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.55934158999999717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35039999999999694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.14462638999999733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7964960000003174E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25736001000000286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45354496000000299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64650625000000339</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83623056000000329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0227048100000031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2059161600000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3858520100000042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5625000000000036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7358480100000042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9058841600000038</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0725968100000038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2359745600000043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3960062500000041</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5526809600000044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.705988010000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8559169600000045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0024576100000044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1456000000000044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2853344100000044</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4216513600000047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5545416100000042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6839961600000044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8100062500000043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9325633600000045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.051659210000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1672857600000039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2794352100000044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3881000000000041</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4932728100000041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5949465600000039</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6931144100000042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7877697600000042</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8789062500000036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9665177600000039</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0505984100000036</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.1311425600000042</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.2081448100000038</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2816000000000036</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.3515032100000033</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.4178497600000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.4806352100000026</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5398553600000033</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5955062500000032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6475841600000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6960856100000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.741007360000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.7823464100000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8201000000000018</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8542656100000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8848409600000018</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.911824010000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9352129600000012</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9550062500000012</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9712025600000009</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.9838008100000009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.9928001600000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9982000100000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.9982000099999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9928001599999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9838008099999991</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.9712025599999992</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.9550062499999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.9352129599999985</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9118240099999984</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.8848409599999982</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.8542656099999979</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.8200999999999983</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7823464099999979</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.7410073599999976</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.6960856099999972</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.6475841599999974</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.595506249999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.5398553599999971</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.4806352099999964</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4178497599999966</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.3515032099999962</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.2815999999999956</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.2081448099999959</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1311425599999954</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0505984099999948</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.966517759999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.8789062499999947</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.7877697599999944</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.6931144099999944</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.5949465599999932</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.4932728099999935</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.3880999999999926</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2794352099999928</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.1672857599999924</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.0516592099999915</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.9325633599999916</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.8100062499999918</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.6839961599999906</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.5545416099999909</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.42165135999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2853344099999902</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.1455999999999897</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.0024576099999893</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.855916959999989</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.705988009999988</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.552680959999988</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.3960062499999872</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2359745599999874</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.0725968099999865</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.9058841599999861</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7358480099999856</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.5624999999999858</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.3858520099999865</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2059161599999859</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0227048099999845</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83623055999998552</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.64650624999998385</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.45354495999998345</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.25736000999998332</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.7964959999982746E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.14462639000001776</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.35040000000001825</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.5593415900000176</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.77143664000001877</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.98667039000001999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.2050278400000192</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.426493750000021</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.6510526400000209</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.8786887900000213</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.1093862400000223</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.3431287900000228</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.5799000000000216</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.8196831900000223</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-3.0624614400000247</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-3.3082175900000248</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-3.5569342400000235</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-3.8085937500000266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F66-4298-9DCB-CB79444599F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454057448"/>
+        <c:axId val="454057776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454057448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454057776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454057776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454057448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2026,6 +2839,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3021,11 +3874,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3036,7 +4405,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3047,7 +4427,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294725" cy="6070879"/>
+    <xdr:ext cx="9308094" cy="6073366"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -3074,7 +4454,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6070169"/>
+    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298663" cy="6082797"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -3360,10 +4767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,1932 +4783,1926 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="B2">
         <f>A2^4-18*A2^2+6</f>
-        <v>6</v>
+        <v>-3.80859375</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <f>ATAN(F2-1)+3*F2-2</f>
-        <v>-2.7853981633974483</v>
+        <v>-0.96364760900080615</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+0.01</f>
-        <v>0.01</v>
+        <v>-0.74</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A3^4-18*A3^2+6</f>
-        <v>5.9982000099999997</v>
+        <v>-3.5569342400000004</v>
       </c>
       <c r="F3">
         <f>F2+0.01</f>
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="1">ATAN(F3-1)+3*F3-2</f>
-        <v>-2.7503730800666357</v>
+        <v>-0.92561565321122452</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="2">A3+0.01</f>
-        <v>0.02</v>
+        <v>-0.73</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5.9928001599999998</v>
+        <v>-3.3082175899999982</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="3">F3+0.01</f>
-        <v>0.02</v>
+        <f t="shared" ref="F4:F55" si="3">F3+0.01</f>
+        <v>0.52</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>-2.7152974968121262</v>
+        <v>-0.88751997515716985</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>-0.72</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5.98380081</v>
+        <v>-3.0624614399999999</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-2.6801709140203309</v>
+        <v>-0.84936088728459147</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>-0.71</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5.97120256</v>
+        <v>-2.819683190000001</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.54</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-2.6449928327109102</v>
+        <v>-0.811138740718782</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>-0.7</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>5.9550062500000003</v>
+        <v>-2.5798999999999985</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>-2.6097627548757707</v>
+        <v>-0.77285392613294057</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>6.0000000000000005E-2</v>
+        <v>-0.69</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5.9352129600000003</v>
+        <v>-2.3431287899999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-2.5744801838344058</v>
+        <v>-0.73450687458478581</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>-0.67999999999999994</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5.9118240100000001</v>
+        <v>-2.1093862399999974</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>-2.539144624606017</v>
+        <v>-0.69609805831761529</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>-0.66999999999999993</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5.88484096</v>
+        <v>-1.8786887899999982</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-2.5037555842988599</v>
+        <v>-0.65762799152212903</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>-0.65999999999999992</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5.8542656099999997</v>
+        <v>-1.6510526399999979</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-2.4683125725172279</v>
+        <v>-0.61909723105527803</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
+        <v>-0.64999999999999991</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>5.8201000000000001</v>
+        <v>-1.4264937499999979</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-2.4328151017865065</v>
+        <v>-0.58050637711236464</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>0.10999999999999999</v>
+        <v>-0.6399999999999999</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5.7823464099999997</v>
+        <v>-1.205027839999997</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.10999999999999999</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-2.3972626879966903</v>
+        <v>-0.54185607384858092</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>0.11999999999999998</v>
+        <v>-0.62999999999999989</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5.7410073600000002</v>
+        <v>-0.98667038999999779</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>0.11999999999999998</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-2.3616548508647615</v>
+        <v>-0.50314700994617589</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>0.12999999999999998</v>
+        <v>-0.61999999999999988</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>5.6960856099999999</v>
+        <v>-0.77143663999999745</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>0.12999999999999998</v>
+        <v>0.63000000000000012</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-2.3259911144163001</v>
+        <v>-0.46437991912343746</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>0.13999999999999999</v>
+        <v>-0.60999999999999988</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>5.6475841600000001</v>
+        <v>-0.55934158999999717</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0.13999999999999999</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-2.2902710074866865</v>
+        <v>-0.42555558058171172</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>-0.59999999999999987</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>5.5955062499999997</v>
+        <v>-0.35039999999999694</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-2.254494064242218</v>
+        <v>-0.38667481938672665</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>-0.58999999999999986</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.5398553599999998</v>
+        <v>-0.14462638999999733</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>0.16</v>
+        <v>0.66000000000000014</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-2.2186598247214633</v>
+        <v>-0.34773850678055496</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>0.17</v>
+        <v>-0.57999999999999985</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>5.48063521</v>
+        <v>5.7964960000003174E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>0.67000000000000015</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-2.1827678353971223</v>
+        <v>-0.30874756042064355</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
+        <v>-0.56999999999999984</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5.4178497600000002</v>
+        <v>0.25736001000000286</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>0.18000000000000002</v>
+        <v>0.68000000000000016</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-2.1468176497586451</v>
+        <v>-0.26970294454245547</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>0.19000000000000003</v>
+        <v>-0.55999999999999983</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>5.3515032099999997</v>
+        <v>0.45354496000000299</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>0.19000000000000003</v>
+        <v>0.69000000000000017</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-2.1108088289158276</v>
+        <v>-0.23060567004239507</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>0.20000000000000004</v>
+        <v>-0.54999999999999982</v>
       </c>
       <c r="B22">
-        <f>A22^4-18*A22^2+6</f>
-        <v>5.2816000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.64650625000000339</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>0.20000000000000004</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-2.0747409422235528</v>
+        <v>-0.19145679447786645</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>0.21000000000000005</v>
+        <v>-0.53999999999999981</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>5.2081448099999994</v>
+        <v>0.83623056000000329</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>0.21000000000000005</v>
+        <v>0.71000000000000019</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>-2.038613567927821</v>
+        <v>-0.15225742198149028</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>0.22000000000000006</v>
+        <v>-0.5299999999999998</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>5.1311425599999998</v>
+        <v>1.0227048100000031</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.22000000000000006</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-2.002426293833151</v>
+        <v>-0.11300870308670996</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>0.23000000000000007</v>
+        <v>-0.5199999999999998</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>5.0505984099999992</v>
+        <v>1.2059161600000028</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.23000000000000007</v>
+        <v>0.7300000000000002</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-1.9661787179913945</v>
+        <v>-7.3711834462265591E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>0.24000000000000007</v>
+        <v>-0.50999999999999979</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>4.9665177599999994</v>
+        <v>1.3858520100000042</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>0.24000000000000007</v>
+        <v>0.74000000000000021</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>-1.9298704494119474</v>
+        <v>-3.436805855326508E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>0.25000000000000006</v>
+        <v>-0.49999999999999978</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>4.87890625</v>
+        <v>1.5625000000000036</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>0.25000000000000006</v>
+        <v>0.75000000000000022</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>-1.8935011087932843</v>
+        <v>5.0213368731371055E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>0.26000000000000006</v>
+        <v>-0.48999999999999977</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4.7877697599999998</v>
+        <v>1.7358480100000042</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>0.26000000000000006</v>
+        <v>0.76000000000000023</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>-1.8570703292756834</v>
+        <v>4.4455019279137531E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>0.27000000000000007</v>
+        <v>-0.47999999999999976</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>4.6931144099999997</v>
+        <v>1.9058841600000038</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>0.27000000000000007</v>
+        <v>0.77000000000000024</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>-1.8205777572149344</v>
+        <v>8.3931612006116652E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>0.28000000000000008</v>
+        <v>-0.46999999999999975</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4.5949465599999995</v>
+        <v>2.0725968100000038</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>0.28000000000000008</v>
+        <v>0.78000000000000025</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>-1.7840230529767567</v>
+        <v>0.12344969502391168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>0.29000000000000009</v>
+        <v>-0.45999999999999974</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>4.4932728099999988</v>
+        <v>2.2359745600000043</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>0.29000000000000009</v>
+        <v>0.79000000000000026</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>-1.7474058917515722</v>
+        <v>0.16300780578018026</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>0.3000000000000001</v>
+        <v>-0.44999999999999973</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>4.3880999999999988</v>
+        <v>2.3960062500000041</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>0.3000000000000001</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>-1.7107259643892081</v>
+        <v>0.20260444015012036</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>0.31000000000000011</v>
+        <v>-0.43999999999999972</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>4.279435209999999</v>
+        <v>2.5526809600000044</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>0.31000000000000011</v>
+        <v>0.81000000000000028</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>-1.6739829782529974</v>
+        <v>0.24223805348640726</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>0.32000000000000012</v>
+        <v>-0.42999999999999972</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>4.1672857599999986</v>
+        <v>2.705988010000004</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>0.32000000000000012</v>
+        <v>0.82000000000000028</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>-1.637176658092677</v>
+        <v>0.28190706176880376</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>0.33000000000000013</v>
+        <v>-0.41999999999999971</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>4.0516592099999986</v>
+        <v>2.8559169600000045</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>0.33000000000000013</v>
+        <v>0.83000000000000029</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>-1.6003067469353716</v>
+        <v>0.32160984285247141</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>0.34000000000000014</v>
+        <v>-0.4099999999999997</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3.9325633599999983</v>
+        <v>3.0024576100000044</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>0.34000000000000014</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>-1.5633730069938554</v>
+        <v>0.36134473781359988</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>0.35000000000000014</v>
+        <v>-0.39999999999999969</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>3.810006249999998</v>
+        <v>3.1456000000000044</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>0.35000000000000014</v>
+        <v>0.85000000000000031</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>-1.5263752205911831</v>
+        <v>0.40111005239050357</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>0.36000000000000015</v>
+        <v>-0.38999999999999968</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>3.6839961599999982</v>
+        <v>3.2853344100000044</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>0.36000000000000015</v>
+        <v>0.86000000000000032</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>-1.4893131911006612</v>
+        <v>0.4409040585179298</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>0.37000000000000016</v>
+        <v>-0.37999999999999967</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>3.5545416099999976</v>
+        <v>3.4216513600000047</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>0.37000000000000016</v>
+        <v>0.87000000000000033</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>-1.4521867439000284</v>
+        <v>0.48072499595185825</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>0.38000000000000017</v>
+        <v>-0.36999999999999966</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>3.4216513599999976</v>
+        <v>3.5545416100000042</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>0.38000000000000017</v>
+        <v>0.88000000000000034</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>-1.414995727338586</v>
+        <v>0.52057107398166291</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>0.39000000000000018</v>
+        <v>-0.35999999999999965</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>3.2853344099999973</v>
+        <v>3.6839961600000044</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>0.39000000000000018</v>
+        <v>0.89000000000000035</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>-1.3777400137159017</v>
+        <v>0.56044047322605683</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>0.40000000000000019</v>
+        <v>-0.34999999999999964</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>3.1455999999999973</v>
+        <v>3.8100062500000043</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>0.40000000000000019</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>-1.3404195002705834</v>
+        <v>0.60033134750883921</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>0.4100000000000002</v>
+        <v>-0.33999999999999964</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>3.0024576099999973</v>
+        <v>3.9325633600000045</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>0.4100000000000002</v>
+        <v>0.91000000000000036</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>-1.3030341101774892</v>
+        <v>0.64024182581005107</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>0.42000000000000021</v>
+        <v>-0.32999999999999963</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2.855916959999997</v>
+        <v>4.051659210000004</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>0.42000000000000021</v>
+        <v>0.92000000000000037</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>-1.2655837935516094</v>
+        <v>0.68017001428776425</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>0.43000000000000022</v>
+        <v>-0.31999999999999962</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>2.7059880099999969</v>
+        <v>4.1672857600000039</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>0.43000000000000022</v>
+        <v>0.93000000000000038</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>-1.2280685284567201</v>
+        <v>0.72011399836535883</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>0.44000000000000022</v>
+        <v>-0.30999999999999961</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>2.5526809599999964</v>
+        <v>4.2794352100000044</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>0.44000000000000022</v>
+        <v>0.94000000000000039</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>-1.1904883219167748</v>
+        <v>0.76007184487879353</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>0.45000000000000023</v>
+        <v>-0.2999999999999996</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>2.3960062499999966</v>
+        <v>4.3881000000000041</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>0.45000000000000023</v>
+        <v>0.9500000000000004</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>-1.1528432109278599</v>
+        <v>0.80004160427805893</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>0.46000000000000024</v>
+        <v>-0.28999999999999959</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2.2359745599999958</v>
+        <v>4.4932728100000041</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>0.46000000000000024</v>
+        <v>0.96000000000000041</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>-1.1151332634684032</v>
+        <v>0.84002131287671178</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>A48+0.01</f>
-        <v>0.47000000000000025</v>
+        <f t="shared" si="2"/>
+        <v>-0.27999999999999958</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>2.0725968099999958</v>
+        <v>4.5949465600000039</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>0.47000000000000025</v>
+        <v>0.97000000000000042</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>-1.0773585795051894</v>
+        <v>0.88000899514312358</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>0.48000000000000026</v>
+        <v>-0.26999999999999957</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>1.9058841599999958</v>
+        <v>4.6931144100000042</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>0.48000000000000026</v>
+        <v>0.98000000000000043</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>-1.0395192919925953</v>
+        <v>0.92000266602685121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>0.49000000000000027</v>
+        <v>-0.25999999999999956</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>1.7358480099999953</v>
+        <v>4.7877697600000042</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>0.49000000000000027</v>
+        <v>0.99000000000000044</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>-1.0016155678623266</v>
+        <v>0.9600003333133369</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>0.50000000000000022</v>
+        <v>-0.24999999999999956</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>1.5624999999999964</v>
+        <v>4.8789062500000036</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>0.50000000000000022</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>-0.96364760900080526</v>
+        <v>1.0000000000000018</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>0.51000000000000023</v>
+        <v>-0.23999999999999955</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1.3858520099999954</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
-        <v>0.51000000000000023</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>-0.92561565321122363</v>
+        <v>4.9665177600000039</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>0.52000000000000024</v>
+        <v>-0.22999999999999954</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>1.2059161599999957</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>0.52000000000000024</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>-0.88751997515716896</v>
+        <v>5.0505984100000036</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>0.53000000000000025</v>
+        <v>-0.21999999999999953</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>1.0227048099999951</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000025</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>-0.84936088728459058</v>
+        <v>5.1311425600000042</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>0.54000000000000026</v>
+        <v>-0.20999999999999952</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>0.83623055999999441</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
-        <v>0.54000000000000026</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>-0.81113874071878111</v>
+        <v>5.2081448100000038</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>0.55000000000000027</v>
+        <v>-0.19999999999999951</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>0.6465062499999954</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000027</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>-0.77285392613293968</v>
+        <v>5.2816000000000036</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>0.56000000000000028</v>
+        <v>-0.1899999999999995</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>0.453544959999995</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0.56000000000000028</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>-0.73450687458478492</v>
+        <v>5.3515032100000033</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>0.57000000000000028</v>
+        <v>-0.17999999999999949</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>0.25736000999999487</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
-        <v>0.57000000000000028</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>-0.69609805831761462</v>
+        <v>5.4178497600000028</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>0.58000000000000029</v>
+        <v>-0.16999999999999948</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>5.7964959999994292E-2</v>
-      </c>
-      <c r="C60">
-        <f>AVERAGE(A60,A61)</f>
-        <v>0.5850000000000003</v>
-      </c>
-      <c r="D60">
-        <f>AVERAGE(B60,B61)</f>
-        <v>-4.3330715000005959E-2</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
-        <v>0.58000000000000029</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>-0.65762799152212814</v>
+        <v>5.4806352100000026</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>0.5900000000000003</v>
+        <v>-0.15999999999999948</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>-0.14462639000000621</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
-        <v>0.5900000000000003</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>-0.61909723105527714</v>
+        <v>5.5398553600000033</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>0.60000000000000031</v>
+        <v>-0.14999999999999947</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>-0.35040000000000671</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
-        <v>0.60000000000000031</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>-0.58050637711236375</v>
+        <v>5.5955062500000032</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>0.61000000000000032</v>
+        <v>-0.13999999999999946</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>-0.55934159000000694</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
-        <v>0.61000000000000032</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>-0.54185607384858003</v>
+        <v>5.6475841600000027</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>0.62000000000000033</v>
+        <v>-0.12999999999999945</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>-0.77143664000000722</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="3"/>
-        <v>0.62000000000000033</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>-0.50314700994617501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.6960856100000026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>0.63000000000000034</v>
+        <v>-0.11999999999999945</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>-0.98667039000000756</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="3"/>
-        <v>0.63000000000000034</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>-0.46437991912343657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.741007360000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>0.64000000000000035</v>
+        <v>-0.10999999999999946</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>-1.2050278400000085</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="3"/>
-        <v>0.64000000000000035</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>-0.42555558058171084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.7823464100000024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>0.65000000000000036</v>
+        <v>-9.9999999999999464E-2</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="4">A67^4-18*A67^2+6</f>
-        <v>-1.4264937500000077</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="3"/>
-        <v>0.65000000000000036</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G111" si="5">ATAN(F67-1)+3*F67-2</f>
-        <v>-0.38667481938672577</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B67:B130" si="4">A67^4-18*A67^2+6</f>
+        <v>5.8201000000000018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A102" si="6">A67+0.01</f>
-        <v>0.66000000000000036</v>
+        <f t="shared" ref="A68:A131" si="5">A67+0.01</f>
+        <v>-8.9999999999999469E-2</v>
       </c>
       <c r="B68">
         <f t="shared" si="4"/>
-        <v>-1.6510526400000085</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ref="F68:F111" si="7">F67+0.01</f>
-        <v>0.66000000000000036</v>
-      </c>
-      <c r="G68">
+        <v>5.8542656100000015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <f t="shared" si="5"/>
-        <v>-0.34773850678055407</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="6"/>
-        <v>0.67000000000000037</v>
+        <v>-7.9999999999999474E-2</v>
       </c>
       <c r="B69">
         <f t="shared" si="4"/>
-        <v>-1.878688790000008</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>0.67000000000000037</v>
-      </c>
-      <c r="G69">
+        <v>5.8848409600000018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
         <f t="shared" si="5"/>
-        <v>-0.30874756042064311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="6"/>
-        <v>0.68000000000000038</v>
+        <v>-6.9999999999999479E-2</v>
       </c>
       <c r="B70">
         <f t="shared" si="4"/>
-        <v>-2.1093862400000081</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>0.68000000000000038</v>
-      </c>
-      <c r="G70">
+        <v>5.911824010000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
         <f t="shared" si="5"/>
-        <v>-0.26970294454245503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="6"/>
-        <v>0.69000000000000039</v>
+        <v>-5.9999999999999477E-2</v>
       </c>
       <c r="B71">
         <f t="shared" si="4"/>
-        <v>-2.3431287900000086</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>0.69000000000000039</v>
-      </c>
-      <c r="G71">
+        <v>5.9352129600000012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
         <f t="shared" si="5"/>
-        <v>-0.23060567004239374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="6"/>
-        <v>0.7000000000000004</v>
+        <v>-4.9999999999999475E-2</v>
       </c>
       <c r="B72">
         <f t="shared" si="4"/>
-        <v>-2.5799000000000092</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>0.7000000000000004</v>
-      </c>
-      <c r="G72">
+        <v>5.9550062500000012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
         <f t="shared" si="5"/>
-        <v>-0.19145679447786534</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="6"/>
-        <v>0.71000000000000041</v>
+        <v>-3.9999999999999473E-2</v>
       </c>
       <c r="B73">
         <f t="shared" si="4"/>
-        <v>-2.8196831900000081</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="7"/>
-        <v>0.71000000000000041</v>
-      </c>
-      <c r="G73">
+        <v>5.9712025600000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
         <f t="shared" si="5"/>
-        <v>-0.15225742198148939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="6"/>
-        <v>0.72000000000000042</v>
+        <v>-2.9999999999999472E-2</v>
       </c>
       <c r="B74">
         <f t="shared" si="4"/>
-        <v>-3.0624614400000105</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="7"/>
-        <v>0.72000000000000042</v>
-      </c>
-      <c r="G74">
+        <v>5.9838008100000009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
         <f t="shared" si="5"/>
-        <v>-0.11300870308670907</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="6"/>
-        <v>0.73000000000000043</v>
+        <v>-1.999999999999947E-2</v>
       </c>
       <c r="B75">
         <f t="shared" si="4"/>
-        <v>-3.3082175900000106</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="7"/>
-        <v>0.73000000000000043</v>
-      </c>
-      <c r="G75">
+        <v>5.9928001600000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
         <f t="shared" si="5"/>
-        <v>-7.3711834462264481E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="6"/>
-        <v>0.74000000000000044</v>
+        <v>-9.9999999999994694E-3</v>
       </c>
       <c r="B76">
         <f t="shared" si="4"/>
-        <v>-3.556934240000011</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>0.74000000000000044</v>
-      </c>
-      <c r="G76">
+        <v>5.9982000100000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
         <f t="shared" si="5"/>
-        <v>-3.4368058553263969E-2</v>
-      </c>
-      <c r="H76">
-        <f>AVERAGE(F76,F77)</f>
-        <v>0.74500000000000044</v>
-      </c>
-      <c r="I76">
-        <f>AVERAGE(G76,G77)</f>
-        <v>-1.467336084006321E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="6"/>
-        <v>0.75000000000000044</v>
+        <v>5.3082538364890297E-16</v>
       </c>
       <c r="B77">
         <f t="shared" si="4"/>
-        <v>-3.8085937500000124</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="7"/>
-        <v>0.75000000000000044</v>
-      </c>
-      <c r="G77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
         <f t="shared" si="5"/>
-        <v>5.0213368731375496E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="6"/>
-        <v>0.76000000000000045</v>
+        <v>1.0000000000000531E-2</v>
       </c>
       <c r="B78">
         <f t="shared" si="4"/>
-        <v>-4.0631782400000098</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="7"/>
-        <v>0.76000000000000045</v>
-      </c>
-      <c r="G78">
+        <v>5.9982000099999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
         <f t="shared" si="5"/>
-        <v>4.4455019279138419E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="6"/>
-        <v>0.77000000000000046</v>
+        <v>2.0000000000000531E-2</v>
       </c>
       <c r="B79">
         <f t="shared" si="4"/>
-        <v>-4.3206695900000138</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="7"/>
-        <v>0.77000000000000046</v>
-      </c>
-      <c r="G79">
+        <v>5.9928001599999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
         <f t="shared" si="5"/>
-        <v>8.3931612006117984E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="6"/>
-        <v>0.78000000000000047</v>
+        <v>3.0000000000000533E-2</v>
       </c>
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>-4.5810494400000117</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="7"/>
-        <v>0.78000000000000047</v>
-      </c>
-      <c r="G80">
+        <v>5.9838008099999991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
         <f t="shared" si="5"/>
-        <v>0.12344969502391301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="6"/>
-        <v>0.79000000000000048</v>
+        <v>4.0000000000000535E-2</v>
       </c>
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>-4.8442991900000116</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="7"/>
-        <v>0.79000000000000048</v>
-      </c>
-      <c r="G81">
+        <v>5.9712025599999992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
         <f t="shared" si="5"/>
-        <v>0.1630078057801807</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000049</v>
+        <v>5.0000000000000537E-2</v>
       </c>
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>-5.1104000000000127</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="7"/>
-        <v>0.80000000000000049</v>
-      </c>
-      <c r="G82">
+        <v>5.9550062499999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
         <f t="shared" si="5"/>
-        <v>0.2026044401501208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="6"/>
-        <v>0.8100000000000005</v>
+        <v>6.0000000000000539E-2</v>
       </c>
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>-5.3793327900000119</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="7"/>
-        <v>0.8100000000000005</v>
-      </c>
-      <c r="G83">
+        <v>5.9352129599999985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
         <f t="shared" si="5"/>
-        <v>0.24223805348640859</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="6"/>
-        <v>0.82000000000000051</v>
+        <v>7.0000000000000534E-2</v>
       </c>
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>-5.6510782400000128</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="7"/>
-        <v>0.82000000000000051</v>
-      </c>
-      <c r="G84">
+        <v>5.9118240099999984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
         <f t="shared" si="5"/>
-        <v>0.28190706176880465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="6"/>
-        <v>0.83000000000000052</v>
+        <v>8.0000000000000529E-2</v>
       </c>
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>-5.9256167900000154</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="7"/>
-        <v>0.83000000000000052</v>
-      </c>
-      <c r="G85">
+        <v>5.8848409599999982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
         <f t="shared" si="5"/>
-        <v>0.32160984285247229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="6"/>
-        <v>0.84000000000000052</v>
+        <v>9.0000000000000524E-2</v>
       </c>
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>-6.2029286400000139</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="7"/>
-        <v>0.84000000000000052</v>
-      </c>
-      <c r="G86">
+        <v>5.8542656099999979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
         <f t="shared" si="5"/>
-        <v>0.36134473781360033</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="6"/>
-        <v>0.85000000000000053</v>
+        <v>0.10000000000000052</v>
       </c>
       <c r="B87">
         <f t="shared" si="4"/>
-        <v>-6.4829937500000163</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="7"/>
-        <v>0.85000000000000053</v>
-      </c>
-      <c r="G87">
+        <v>5.8200999999999983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
         <f t="shared" si="5"/>
-        <v>0.4011100523905049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="6"/>
-        <v>0.86000000000000054</v>
+        <v>0.11000000000000051</v>
       </c>
       <c r="B88">
         <f t="shared" si="4"/>
-        <v>-6.7657918400000163</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="7"/>
-        <v>0.86000000000000054</v>
-      </c>
-      <c r="G88">
+        <v>5.7823464099999979</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
         <f t="shared" si="5"/>
-        <v>0.44090405851793113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="6"/>
-        <v>0.87000000000000055</v>
+        <v>0.12000000000000051</v>
       </c>
       <c r="B89">
         <f t="shared" si="4"/>
-        <v>-7.0513023900000142</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="7"/>
-        <v>0.87000000000000055</v>
-      </c>
-      <c r="G89">
+        <v>5.7410073599999976</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
         <f t="shared" si="5"/>
-        <v>0.48072499595185914</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="6"/>
-        <v>0.88000000000000056</v>
+        <v>0.1300000000000005</v>
       </c>
       <c r="B90">
         <f t="shared" si="4"/>
-        <v>-7.3395046400000155</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="7"/>
-        <v>0.88000000000000056</v>
-      </c>
-      <c r="G90">
+        <v>5.6960856099999972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
         <f t="shared" si="5"/>
-        <v>0.52057107398166336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="6"/>
-        <v>0.89000000000000057</v>
+        <v>0.14000000000000051</v>
       </c>
       <c r="B91">
         <f t="shared" si="4"/>
-        <v>-7.6303775900000179</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="7"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="G91">
+        <v>5.6475841599999974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <f t="shared" si="5"/>
-        <v>0.56044047322605772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="6"/>
-        <v>0.90000000000000058</v>
+        <v>0.15000000000000052</v>
       </c>
       <c r="B92">
         <f t="shared" si="4"/>
-        <v>-7.9239000000000175</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="7"/>
-        <v>0.90000000000000058</v>
-      </c>
-      <c r="G92">
+        <v>5.595506249999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
         <f t="shared" si="5"/>
-        <v>0.60033134750884054</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="6"/>
-        <v>0.91000000000000059</v>
+        <v>0.16000000000000053</v>
       </c>
       <c r="B93">
         <f t="shared" si="4"/>
-        <v>-8.2200503900000168</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="7"/>
-        <v>0.91000000000000059</v>
-      </c>
-      <c r="G93">
+        <v>5.5398553599999971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
         <f t="shared" si="5"/>
-        <v>0.64024182581005196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="6"/>
-        <v>0.9200000000000006</v>
+        <v>0.17000000000000054</v>
       </c>
       <c r="B94">
         <f t="shared" si="4"/>
-        <v>-8.5188070400000164</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="7"/>
-        <v>0.9200000000000006</v>
-      </c>
-      <c r="G94">
+        <v>5.4806352099999964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
         <f t="shared" si="5"/>
-        <v>0.68017001428776469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="6"/>
-        <v>0.9300000000000006</v>
+        <v>0.18000000000000055</v>
       </c>
       <c r="B95">
         <f t="shared" si="4"/>
-        <v>-8.8201479900000184</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="7"/>
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="G95">
+        <v>5.4178497599999966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
         <f t="shared" si="5"/>
-        <v>0.72011399836535972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="6"/>
-        <v>0.94000000000000061</v>
+        <v>0.19000000000000056</v>
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>-9.124051040000019</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="7"/>
-        <v>0.94000000000000061</v>
-      </c>
-      <c r="G96">
+        <v>5.3515032099999962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
         <f t="shared" si="5"/>
-        <v>0.76007184487879487</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="6"/>
-        <v>0.95000000000000062</v>
+        <v>0.20000000000000057</v>
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>-9.4304937500000197</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="7"/>
-        <v>0.95000000000000062</v>
-      </c>
-      <c r="G97">
+        <v>5.2815999999999956</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
         <f t="shared" si="5"/>
-        <v>0.80004160427805981</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="6"/>
-        <v>0.96000000000000063</v>
+        <v>0.21000000000000058</v>
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>-9.7394534400000179</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="7"/>
-        <v>0.96000000000000063</v>
-      </c>
-      <c r="G98">
+        <v>5.2081448099999959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
         <f t="shared" si="5"/>
-        <v>0.84002131287671222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="6"/>
-        <v>0.97000000000000064</v>
+        <v>0.22000000000000058</v>
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>-10.050907190000022</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="7"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="G99">
+        <v>5.1311425599999954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
         <f t="shared" si="5"/>
-        <v>0.88000899514312447</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="6"/>
-        <v>0.98000000000000065</v>
+        <v>0.23000000000000059</v>
       </c>
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>-10.364831840000022</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="7"/>
-        <v>0.98000000000000065</v>
-      </c>
-      <c r="G100">
+        <v>5.0505984099999948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
         <f t="shared" si="5"/>
-        <v>0.9200026660268521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="6"/>
-        <v>0.99000000000000066</v>
+        <v>0.2400000000000006</v>
       </c>
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>-10.681203990000022</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="7"/>
-        <v>0.99000000000000066</v>
-      </c>
-      <c r="G101">
+        <v>4.966517759999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
         <f t="shared" si="5"/>
-        <v>0.96000033331333734</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000007</v>
+        <v>0.25000000000000061</v>
       </c>
       <c r="B102">
         <f t="shared" si="4"/>
-        <v>-11.000000000000021</v>
-      </c>
-      <c r="F102">
+        <v>4.8789062499999947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="5"/>
+        <v>0.26000000000000062</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>4.7877697599999944</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="5"/>
+        <v>0.27000000000000063</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>4.6931144099999944</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000064</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>4.5949465599999932</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="5"/>
+        <v>0.29000000000000065</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="4"/>
+        <v>4.4932728099999935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000066</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="4"/>
+        <v>4.3880999999999926</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="5"/>
+        <v>0.31000000000000066</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="4"/>
+        <v>4.2794352099999928</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="5"/>
+        <v>0.32000000000000067</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="4"/>
+        <v>4.1672857599999924</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="5"/>
+        <v>0.33000000000000068</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="4"/>
+        <v>4.0516592099999915</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="5"/>
+        <v>0.34000000000000069</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="4"/>
+        <v>3.9325633599999916</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="5"/>
+        <v>0.3500000000000007</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="4"/>
+        <v>3.8100062499999918</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="5"/>
+        <v>0.36000000000000071</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="4"/>
+        <v>3.6839961599999906</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="5"/>
+        <v>0.37000000000000072</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="4"/>
+        <v>3.5545416099999909</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="5"/>
+        <v>0.38000000000000073</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="4"/>
+        <v>3.42165135999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="5"/>
+        <v>0.39000000000000073</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="4"/>
+        <v>3.2853344099999902</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="5"/>
+        <v>0.40000000000000074</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="4"/>
+        <v>3.1455999999999897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="5"/>
+        <v>0.41000000000000075</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="4"/>
+        <v>3.0024576099999893</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="5"/>
+        <v>0.42000000000000076</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="4"/>
+        <v>2.855916959999989</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="5"/>
+        <v>0.43000000000000077</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="4"/>
+        <v>2.705988009999988</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="5"/>
+        <v>0.44000000000000078</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="4"/>
+        <v>2.552680959999988</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000079</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="4"/>
+        <v>2.3960062499999872</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="5"/>
+        <v>0.4600000000000008</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="4"/>
+        <v>2.2359745599999874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="5"/>
+        <v>0.47000000000000081</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="4"/>
+        <v>2.0725968099999865</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="5"/>
+        <v>0.48000000000000081</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="4"/>
+        <v>1.9058841599999861</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="5"/>
+        <v>0.49000000000000082</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="4"/>
+        <v>1.7358480099999856</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="5"/>
+        <v>0.50000000000000078</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="4"/>
+        <v>1.5624999999999858</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="5"/>
+        <v>0.51000000000000079</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="4"/>
+        <v>1.3858520099999865</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="5"/>
+        <v>0.52000000000000079</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="4"/>
+        <v>1.2059161599999859</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="5"/>
+        <v>0.5300000000000008</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="4"/>
+        <v>1.0227048099999845</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="5"/>
+        <v>0.54000000000000081</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B152" si="6">A131^4-18*A131^2+6</f>
+        <v>0.83623055999998552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132:A152" si="7">A131+0.01</f>
+        <v>0.55000000000000082</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="6"/>
+        <v>0.64650624999998385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
         <f t="shared" si="7"/>
-        <v>1.0000000000000007</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000027</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F103">
+        <v>0.56000000000000083</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="6"/>
+        <v>0.45354495999998345</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
         <f t="shared" si="7"/>
-        <v>1.0100000000000007</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="5"/>
-        <v>1.039999666686668</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F104">
+        <v>0.57000000000000084</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>0.25736000999998332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
         <f t="shared" si="7"/>
-        <v>1.0200000000000007</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="5"/>
-        <v>1.0799973339731537</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F105">
+        <v>0.58000000000000085</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>5.7964959999982746E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
         <f t="shared" si="7"/>
-        <v>1.0300000000000007</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="5"/>
-        <v>1.1199910048568809</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F106">
+        <v>0.59000000000000086</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>-0.14462639000001776</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
         <f t="shared" si="7"/>
-        <v>1.0400000000000007</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="5"/>
-        <v>1.1599786871232927</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F107">
+        <v>0.60000000000000087</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>-0.35040000000001825</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
         <f t="shared" si="7"/>
-        <v>1.0500000000000007</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="5"/>
-        <v>1.1999583957219455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F108">
+        <v>0.61000000000000087</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="6"/>
+        <v>-0.5593415900000176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
         <f t="shared" si="7"/>
-        <v>1.0600000000000007</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="5"/>
-        <v>1.2399281551212109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F109">
+        <v>0.62000000000000088</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="6"/>
+        <v>-0.77143664000001877</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
         <f t="shared" si="7"/>
-        <v>1.0700000000000007</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="5"/>
-        <v>1.2798860016346456</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F110">
+        <v>0.63000000000000089</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="6"/>
+        <v>-0.98667039000001999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
         <f t="shared" si="7"/>
-        <v>1.0800000000000007</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="5"/>
-        <v>1.3198299857122402</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F111">
+        <v>0.6400000000000009</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="6"/>
+        <v>-1.2050278400000192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
         <f t="shared" si="7"/>
-        <v>1.0900000000000007</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="5"/>
-        <v>1.3597581741899534</v>
+        <v>0.65000000000000091</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="6"/>
+        <v>-1.426493750000021</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="7"/>
+        <v>0.66000000000000092</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="6"/>
+        <v>-1.6510526400000209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="7"/>
+        <v>0.67000000000000093</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="6"/>
+        <v>-1.8786887900000213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="7"/>
+        <v>0.68000000000000094</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="6"/>
+        <v>-2.1093862400000223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="7"/>
+        <v>0.69000000000000095</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="6"/>
+        <v>-2.3431287900000228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000095</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="6"/>
+        <v>-2.5799000000000216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="7"/>
+        <v>0.71000000000000096</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="6"/>
+        <v>-2.8196831900000223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="7"/>
+        <v>0.72000000000000097</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="6"/>
+        <v>-3.0624614400000247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>0.73000000000000098</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="6"/>
+        <v>-3.3082175900000248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>0.74000000000000099</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="6"/>
+        <v>-3.5569342400000235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>0.750000000000001</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="6"/>
+        <v>-3.8085937500000266</v>
       </c>
     </row>
   </sheetData>
